--- a/products/28.xlsx
+++ b/products/28.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="C2">
         <v>436</v>
